--- a/src/main/resources/doc/codingirls.xlsx
+++ b/src/main/resources/doc/codingirls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="500" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>高职学院信息管理系统</t>
   </si>
@@ -59,12 +59,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">job </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>表</t>
@@ -81,12 +88,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>job</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>类型表</t>
@@ -97,12 +111,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>tags</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>表</t>
@@ -158,6 +179,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>帐号是否激活</t>
     </r>
     <r>
@@ -173,6 +200,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>：已激活</t>
@@ -190,6 +218,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>：未激活</t>
@@ -232,13 +261,13 @@
     <t>date</t>
   </si>
   <si>
-    <t>category</t>
+    <t>category_id</t>
   </si>
   <si>
     <t>job 性质</t>
   </si>
   <si>
-    <t>job type</t>
+    <t>job type_id</t>
   </si>
   <si>
     <t>job 类型</t>
@@ -248,12 +277,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>tags id</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>集</t>
@@ -271,6 +307,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>用逗号相隔</t>
@@ -288,6 +325,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>如：</t>
@@ -316,12 +354,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>：已发布</t>
@@ -339,6 +384,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>：未发布</t>
@@ -352,12 +398,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>：是</t>
@@ -375,6 +428,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>：否</t>
@@ -399,12 +453,103 @@
     <t>标签被引用的次数</t>
   </si>
   <si>
+    <t>create_user_id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> tag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的用户</t>
+    </r>
+  </si>
+  <si>
+    <t>是否可用</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：可用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：不可用</t>
+    </r>
+  </si>
+  <si>
+    <t>job、tags关联表</t>
+  </si>
+  <si>
+    <t>job_id</t>
+  </si>
+  <si>
+    <t>tag_id</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>优惠码</t>
+  </si>
+  <si>
     <t>user_id</t>
   </si>
   <si>
-    <r>
-      <t>创建</t>
-    </r>
+    <t>优惠码所属用户</t>
+  </si>
+  <si>
+    <t>is_use</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -412,31 +557,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> tag </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的用户</t>
-    </r>
-  </si>
-  <si>
-    <t>是否可用</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：可用</t>
+      <t>是否已使用</t>
     </r>
     <r>
       <rPr>
@@ -445,41 +566,16 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">  0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：不可用</t>
-    </r>
-  </si>
-  <si>
-    <t>job、tags关联表</t>
-  </si>
-  <si>
-    <t>job_id</t>
-  </si>
-  <si>
-    <t>tag_id</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>优惠码</t>
-  </si>
-  <si>
-    <t>优惠码所属用户</t>
-  </si>
-  <si>
-    <t>is_use</t>
-  </si>
-  <si>
-    <r>
-      <t>是否已使用</t>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：已使用</t>
     </r>
     <r>
       <rPr>
@@ -488,29 +584,13 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：已使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>：未使用</t>
@@ -527,16 +607,11 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <charset val="134"/>
     </font>
     <font>
@@ -564,6 +639,22 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <charset val="1"/>
     </font>
     <font>
@@ -579,22 +670,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -603,53 +678,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,19 +693,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -684,16 +707,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,6 +735,81 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -723,25 +820,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,37 +928,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,55 +976,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,55 +1000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,46 +1042,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,6 +1062,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,17 +1120,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,151 +1144,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1201,22 +1295,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1228,40 +1313,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1656,49 +1741,49 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <sheetData>
     <row r="5" spans="3:7">
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="22" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1717,8 +1802,8 @@
   <sheetPr/>
   <dimension ref="B5:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -1729,167 +1814,173 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5">
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="2:5">
-      <c r="B6" s="16">
+    <row r="6" spans="2:5">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" ht="13.5" spans="2:4">
-      <c r="B7" s="16"/>
-      <c r="C7" s="20" t="s">
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" ht="15.75" spans="2:4">
+      <c r="B7" s="11"/>
+      <c r="C7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="13.5" spans="2:5">
-      <c r="B8" s="16"/>
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="2:5">
+      <c r="B8" s="11"/>
+      <c r="C8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" ht="13.5" spans="2:4">
-      <c r="B9" s="16"/>
-      <c r="C9" s="20" t="s">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" ht="15.75" spans="2:4">
+      <c r="B9" s="11"/>
+      <c r="C9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="13.5" spans="2:4">
-      <c r="B10" s="16"/>
-      <c r="C10" s="20" t="s">
+    <row r="10" ht="15.75" spans="2:4">
+      <c r="B10" s="11"/>
+      <c r="C10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="16"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="13.5" spans="2:4">
-      <c r="B12" s="16"/>
-      <c r="C12" s="22" t="s">
+    <row r="12" spans="2:4">
+      <c r="B12" s="11"/>
+      <c r="C12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="16"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="16"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="16"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="16"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="16"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="16"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="16"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="16"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="23"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="16"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="23"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="16"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="23"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="16"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="16"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="23"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="16"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="16"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="19"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="16"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="16"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="21"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" location="用户登录表!A1" display="t_user"/>
+    <hyperlink ref="D6" location="用户表!A1" display="t_user"/>
+    <hyperlink ref="D7" location="job表!A1" display="t_job"/>
+    <hyperlink ref="D8" location="job性质表!A1" display="t_category"/>
+    <hyperlink ref="D9" location="'job 类型表'!A1" display="t_type"/>
+    <hyperlink ref="D10" location="tags表!A1" display="t_tag"/>
+    <hyperlink ref="D11" location="'job、 tags关联表'!A1" display="t_job_tag"/>
+    <hyperlink ref="D12" location="优惠码!A1" display="t_promo_code"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -1903,7 +1994,7 @@
   <dimension ref="B6:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1918,7 +2009,7 @@
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1929,27 +2020,27 @@
     <row r="7" spans="2:8">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" t="s">
         <v>27</v>
       </c>
@@ -1961,10 +2052,9 @@
       <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="D9"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
@@ -1988,23 +2078,23 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" ht="13.5" spans="2:8">
+    <row r="12" ht="15.75" spans="2:8">
       <c r="B12" t="s">
         <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
       <c r="H12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" ht="13.5" spans="2:8">
+    <row r="13" spans="2:8">
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -2014,18 +2104,18 @@
       <c r="D13">
         <v>50</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="5:8">
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2050,7 +2140,7 @@
   <dimension ref="B6:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2065,7 +2155,7 @@
       <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2076,27 +2166,27 @@
     <row r="7" customFormat="1" spans="2:8">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" t="s">
         <v>27</v>
       </c>
@@ -2111,11 +2201,11 @@
       <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
@@ -2127,12 +2217,12 @@
       <c r="D10">
         <v>100</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" customFormat="1" spans="2:7">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="s">
@@ -2141,21 +2231,20 @@
       <c r="D11">
         <v>100</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" customFormat="1" spans="2:7">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="D12"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" customFormat="1" spans="2:7">
       <c r="B13" t="s">
@@ -2164,51 +2253,49 @@
       <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="D13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" customFormat="1" spans="2:7">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="D14"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" ht="13.5" spans="2:7">
-      <c r="B17" s="11" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" ht="15.75" spans="2:7">
+      <c r="B17" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C17" t="s">
@@ -2217,14 +2304,14 @@
       <c r="D17">
         <v>100</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C18" t="s">
@@ -2232,38 +2319,38 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" ht="13.5" spans="2:6">
+    <row r="20" ht="15.75" spans="2:6">
       <c r="B20" t="s">
         <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" ht="13.5" spans="2:6">
+    <row r="21" ht="15.75" spans="2:6">
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2306,7 +2393,7 @@
       <c r="C6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2317,27 +2404,27 @@
     <row r="7" customFormat="1" spans="2:8">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" t="s">
         <v>27</v>
       </c>
@@ -2349,10 +2436,9 @@
       <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="D9"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
@@ -2366,9 +2452,9 @@
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:7">
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2402,7 +2488,7 @@
       <c r="C6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2413,27 +2499,27 @@
     <row r="7" customFormat="1" spans="2:8">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" t="s">
         <v>27</v>
       </c>
@@ -2445,10 +2531,9 @@
       <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="D9"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
@@ -2462,9 +2547,9 @@
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:7">
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2486,7 +2571,7 @@
   <dimension ref="B6:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2498,7 +2583,7 @@
       <c r="C6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
@@ -2509,27 +2594,27 @@
     <row r="7" customFormat="1" spans="2:8">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" t="s">
         <v>27</v>
       </c>
@@ -2541,10 +2626,9 @@
       <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="D9"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
@@ -2557,42 +2641,41 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="13.5" spans="2:5">
+    <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
         <v>65</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D11"/>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="13.5" spans="2:7">
+    <row r="12" customFormat="1" ht="15.75" spans="2:7">
       <c r="B12" t="s">
         <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="13.5" spans="2:6">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" ht="15.75" spans="2:6">
       <c r="B13" t="s">
         <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2628,7 +2711,7 @@
       <c r="C6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
@@ -2639,27 +2722,27 @@
     <row r="7" customFormat="1" spans="2:8">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" t="s">
         <v>27</v>
       </c>
@@ -2671,10 +2754,9 @@
       <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="D9"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="2:3">
       <c r="B10" t="s">
@@ -2693,9 +2775,9 @@
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:7">
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2716,8 +2798,8 @@
   <sheetPr/>
   <dimension ref="B6:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2729,7 +2811,7 @@
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2740,27 +2822,27 @@
     <row r="7" customFormat="1" spans="2:8">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" t="s">
         <v>27</v>
       </c>
@@ -2772,12 +2854,11 @@
       <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="D9"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" customFormat="1" ht="13.5" spans="2:5">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
         <v>74</v>
       </c>
@@ -2787,33 +2868,33 @@
       <c r="D10">
         <v>50</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="13.5" spans="2:5">
+    <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="13.5" spans="2:7">
+      <c r="E11" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="15.75" spans="2:7">
       <c r="B12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/src/main/resources/doc/codingirls.xlsx
+++ b/src/main/resources/doc/codingirls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="500" firstSheet="4" activeTab="8"/>
+    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="500" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="1" r:id="rId1"/>
@@ -435,6 +435,9 @@
     </r>
   </si>
   <si>
+    <t>user_id</t>
+  </si>
+  <si>
     <t>工作性质表</t>
   </si>
   <si>
@@ -539,9 +542,6 @@
   </si>
   <si>
     <t>优惠码</t>
-  </si>
-  <si>
-    <t>user_id</t>
   </si>
   <si>
     <t>优惠码所属用户</t>
@@ -603,11 +603,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -671,13 +671,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -693,9 +686,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -714,8 +730,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,33 +776,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -776,36 +798,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -820,187 +812,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,6 +1043,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1077,6 +1078,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,171 +1131,142 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2137,10 +2129,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B6:H21"/>
+  <dimension ref="B6:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2352,6 +2344,14 @@
       </c>
       <c r="F21" s="5" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2391,7 +2391,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
@@ -2442,7 +2442,7 @@
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -2486,7 +2486,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
@@ -2537,7 +2537,7 @@
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -2581,7 +2581,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
@@ -2632,7 +2632,7 @@
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -2643,24 +2643,24 @@
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="15.75" spans="2:7">
       <c r="B12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -2673,10 +2673,10 @@
         <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2709,7 +2709,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
@@ -2760,7 +2760,7 @@
     </row>
     <row r="10" customFormat="1" spans="2:3">
       <c r="B10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="11" customFormat="1" spans="2:3">
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -2798,7 +2798,7 @@
   <sheetPr/>
   <dimension ref="B6:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -2869,12 +2869,12 @@
         <v>50</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>

--- a/src/main/resources/doc/codingirls.xlsx
+++ b/src/main/resources/doc/codingirls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="500" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>高职学院信息管理系统</t>
   </si>
@@ -234,6 +234,18 @@
     <t>激活码</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>company_address</t>
+  </si>
+  <si>
+    <t>company_type</t>
+  </si>
+  <si>
+    <t>所属行业</t>
+  </si>
+  <si>
     <t>职位表</t>
   </si>
   <si>
@@ -241,9 +253,6 @@
   </si>
   <si>
     <t>title</t>
-  </si>
-  <si>
-    <t>company</t>
   </si>
   <si>
     <t>description</t>
@@ -602,12 +611,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -618,6 +627,11 @@
       <sz val="11"/>
       <color rgb="FF0D0015"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <charset val="134"/>
     </font>
     <font>
@@ -665,6 +679,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -686,16 +708,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -715,9 +745,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,6 +776,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,61 +805,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -812,187 +826,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,6 +1048,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1046,8 +1075,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,197 +1145,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1305,40 +1319,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1733,49 +1750,49 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <sheetData>
     <row r="5" spans="3:7">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1806,163 +1823,163 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" ht="15.75" spans="2:4">
-      <c r="B7" s="11"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="11"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="15.75" spans="2:4">
-      <c r="B9" s="11"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="2:4">
-      <c r="B10" s="11"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="11"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="11"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="11"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="18"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="11"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="18"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="11"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="11"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="11"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="11"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="11"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="18"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="11"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="11"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="11"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="11"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="18"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="11"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="18"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="11"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="19"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="11"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="19"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="11"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="19"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="11"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="19"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1983,15 +2000,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B6:H14"/>
+  <dimension ref="B6:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="12.8" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:8">
@@ -2103,11 +2120,45 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="5:8">
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" ht="13.5" spans="2:5">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2131,7 +2182,7 @@
   <sheetPr/>
   <dimension ref="B6:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2145,7 +2196,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
@@ -2191,17 +2242,17 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -2215,7 +2266,7 @@
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -2229,10 +2280,10 @@
     </row>
     <row r="12" customFormat="1" spans="2:7">
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2240,10 +2291,10 @@
     </row>
     <row r="13" customFormat="1" spans="2:7">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -2251,10 +2302,10 @@
     </row>
     <row r="14" customFormat="1" spans="2:7">
       <c r="B14" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -2262,33 +2313,33 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" ht="15.75" spans="2:7">
       <c r="B17" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -2297,14 +2348,14 @@
         <v>100</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -2312,7 +2363,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
@@ -2320,35 +2371,35 @@
     </row>
     <row r="20" ht="15.75" spans="2:6">
       <c r="B20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="2:6">
       <c r="B21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2391,7 +2442,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
@@ -2442,7 +2493,7 @@
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -2486,7 +2537,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
@@ -2537,7 +2588,7 @@
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -2581,7 +2632,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
@@ -2632,7 +2683,7 @@
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -2643,24 +2694,24 @@
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="15.75" spans="2:7">
       <c r="B12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -2673,10 +2724,10 @@
         <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2709,7 +2760,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
@@ -2760,7 +2811,7 @@
     </row>
     <row r="10" customFormat="1" spans="2:3">
       <c r="B10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -2768,7 +2819,7 @@
     </row>
     <row r="11" customFormat="1" spans="2:3">
       <c r="B11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -2860,7 +2911,7 @@
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -2869,29 +2920,29 @@
         <v>50</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="15.75" spans="2:7">
       <c r="B12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
